--- a/data/dris/raw/Table2.xlsx
+++ b/data/dris/raw/Table2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/subnational_nutrient_distributions/data/dris/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CCA1D2-41B9-7842-8010-05A3BC1FC879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDD463D-2299-C149-911B-1553FCFFDC5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="9940" windowWidth="27640" windowHeight="16940" xr2:uid="{1568AC3B-4601-AB4D-971D-C336BDDCD269}"/>
   </bookViews>
